--- a/SchedulingData/dynamic14/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,131 +466,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.74</v>
+        <v>67.3</v>
       </c>
       <c r="E2" t="n">
-        <v>26.776</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59.16</v>
+        <v>84.52</v>
       </c>
       <c r="E3" t="n">
-        <v>26.744</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.5</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="n">
-        <v>25.14</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>67.3</v>
       </c>
       <c r="D5" t="n">
-        <v>88.5</v>
+        <v>113.86</v>
       </c>
       <c r="E5" t="n">
-        <v>25.32</v>
+        <v>23.904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63.74</v>
+        <v>47.8</v>
       </c>
       <c r="D6" t="n">
-        <v>135.64</v>
+        <v>91.64</v>
       </c>
       <c r="E6" t="n">
-        <v>22.696</v>
+        <v>22.176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>113.86</v>
       </c>
       <c r="D7" t="n">
-        <v>55.48</v>
+        <v>171.14</v>
       </c>
       <c r="E7" t="n">
-        <v>26.152</v>
+        <v>19.796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.16</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>130.62</v>
+        <v>76.72</v>
       </c>
       <c r="E8" t="n">
-        <v>23.728</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130.62</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>197.66</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>20.144</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="10">
@@ -618,188 +618,188 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>197.66</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>244.66</v>
+        <v>130.08</v>
       </c>
       <c r="E10" t="n">
-        <v>17.064</v>
+        <v>23.752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>135.64</v>
+        <v>84.52</v>
       </c>
       <c r="D11" t="n">
-        <v>208.02</v>
+        <v>129.32</v>
       </c>
       <c r="E11" t="n">
-        <v>18.588</v>
+        <v>21.848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>76.72</v>
       </c>
       <c r="D12" t="n">
-        <v>70.90000000000001</v>
+        <v>140.26</v>
       </c>
       <c r="E12" t="n">
-        <v>27.04</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>244.66</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>300.82</v>
+        <v>51.2</v>
       </c>
       <c r="E13" t="n">
-        <v>14.568</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>208.02</v>
+        <v>140.26</v>
       </c>
       <c r="D14" t="n">
-        <v>273.22</v>
+        <v>189.06</v>
       </c>
       <c r="E14" t="n">
-        <v>15.208</v>
+        <v>19.464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>88.5</v>
+        <v>189.06</v>
       </c>
       <c r="D15" t="n">
-        <v>144.6</v>
+        <v>223.34</v>
       </c>
       <c r="E15" t="n">
-        <v>20.84</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>144.6</v>
+        <v>51.2</v>
       </c>
       <c r="D16" t="n">
-        <v>188.5</v>
+        <v>86.36</v>
       </c>
       <c r="E16" t="n">
-        <v>18.08</v>
+        <v>24.204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>300.82</v>
+        <v>129.32</v>
       </c>
       <c r="D17" t="n">
-        <v>349.66</v>
+        <v>182.68</v>
       </c>
       <c r="E17" t="n">
-        <v>10.824</v>
+        <v>19.112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>80.5</v>
+        <v>182.68</v>
       </c>
       <c r="D18" t="n">
-        <v>139.24</v>
+        <v>236.26</v>
       </c>
       <c r="E18" t="n">
-        <v>21.396</v>
+        <v>15.864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>139.24</v>
+        <v>91.64</v>
       </c>
       <c r="D19" t="n">
-        <v>197.4</v>
+        <v>141.72</v>
       </c>
       <c r="E19" t="n">
-        <v>18.18</v>
+        <v>18.788</v>
       </c>
     </row>
     <row r="20">
@@ -812,32 +812,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55.48</v>
+        <v>141.72</v>
       </c>
       <c r="D20" t="n">
-        <v>118.28</v>
+        <v>189.72</v>
       </c>
       <c r="E20" t="n">
-        <v>21.992</v>
+        <v>14.628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>188.5</v>
+        <v>130.08</v>
       </c>
       <c r="D21" t="n">
-        <v>249.32</v>
+        <v>221.18</v>
       </c>
       <c r="E21" t="n">
-        <v>15.088</v>
+        <v>19.252</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>197.4</v>
+        <v>223.34</v>
       </c>
       <c r="D22" t="n">
-        <v>239.66</v>
+        <v>270.96</v>
       </c>
       <c r="E22" t="n">
-        <v>15.584</v>
+        <v>14.524</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>249.32</v>
+        <v>221.18</v>
       </c>
       <c r="D23" t="n">
-        <v>305.12</v>
+        <v>249.58</v>
       </c>
       <c r="E23" t="n">
-        <v>11.128</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>239.66</v>
+        <v>270.96</v>
       </c>
       <c r="D24" t="n">
-        <v>294.96</v>
+        <v>331.96</v>
       </c>
       <c r="E24" t="n">
-        <v>12.164</v>
+        <v>10.044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>70.90000000000001</v>
+        <v>171.14</v>
       </c>
       <c r="D25" t="n">
-        <v>114.46</v>
+        <v>235.44</v>
       </c>
       <c r="E25" t="n">
-        <v>24.304</v>
+        <v>15.476</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114.46</v>
+        <v>236.26</v>
       </c>
       <c r="D26" t="n">
-        <v>163.34</v>
+        <v>271.7</v>
       </c>
       <c r="E26" t="n">
-        <v>22.016</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>294.96</v>
+        <v>189.72</v>
       </c>
       <c r="D27" t="n">
-        <v>371.08</v>
+        <v>239.82</v>
       </c>
       <c r="E27" t="n">
-        <v>8.132</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>273.22</v>
+        <v>86.36</v>
       </c>
       <c r="D28" t="n">
-        <v>318.46</v>
+        <v>153.3</v>
       </c>
       <c r="E28" t="n">
-        <v>12.304</v>
+        <v>20.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>163.34</v>
+        <v>235.44</v>
       </c>
       <c r="D29" t="n">
-        <v>226.14</v>
+        <v>306.6</v>
       </c>
       <c r="E29" t="n">
-        <v>18.376</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>318.46</v>
+        <v>331.96</v>
       </c>
       <c r="D30" t="n">
-        <v>366.92</v>
+        <v>393.22</v>
       </c>
       <c r="E30" t="n">
-        <v>9.568</v>
+        <v>7.548</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>226.14</v>
+        <v>153.3</v>
       </c>
       <c r="D31" t="n">
-        <v>277.76</v>
+        <v>210.9</v>
       </c>
       <c r="E31" t="n">
-        <v>14.344</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>366.92</v>
+        <v>306.6</v>
       </c>
       <c r="D32" t="n">
-        <v>408.42</v>
+        <v>367.02</v>
       </c>
       <c r="E32" t="n">
-        <v>7.048</v>
+        <v>9.087999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1059,108 +1059,108 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>371.08</v>
+        <v>393.22</v>
       </c>
       <c r="D33" t="n">
-        <v>417.78</v>
+        <v>439.62</v>
       </c>
       <c r="E33" t="n">
-        <v>6.092</v>
+        <v>5.508</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>417.78</v>
+        <v>210.9</v>
       </c>
       <c r="D34" t="n">
-        <v>481.18</v>
+        <v>279.44</v>
       </c>
       <c r="E34" t="n">
-        <v>2.372</v>
+        <v>13.756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>118.28</v>
+        <v>249.58</v>
       </c>
       <c r="D35" t="n">
-        <v>187.4</v>
+        <v>312.84</v>
       </c>
       <c r="E35" t="n">
-        <v>17.68</v>
+        <v>13.836</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>349.66</v>
+        <v>271.7</v>
       </c>
       <c r="D36" t="n">
-        <v>411.56</v>
+        <v>330.28</v>
       </c>
       <c r="E36" t="n">
-        <v>6.744</v>
+        <v>10.232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>187.4</v>
+        <v>279.44</v>
       </c>
       <c r="D37" t="n">
-        <v>258.7</v>
+        <v>339.94</v>
       </c>
       <c r="E37" t="n">
-        <v>13.18</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>258.7</v>
+        <v>312.84</v>
       </c>
       <c r="D38" t="n">
-        <v>342.6</v>
+        <v>370.04</v>
       </c>
       <c r="E38" t="n">
-        <v>8.859999999999999</v>
+        <v>10.716</v>
       </c>
     </row>
     <row r="39">
@@ -1169,169 +1169,169 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>277.76</v>
+        <v>339.94</v>
       </c>
       <c r="D39" t="n">
-        <v>345.48</v>
+        <v>426.46</v>
       </c>
       <c r="E39" t="n">
-        <v>11.692</v>
+        <v>6.764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>345.48</v>
+        <v>239.82</v>
       </c>
       <c r="D40" t="n">
-        <v>409.26</v>
+        <v>304.62</v>
       </c>
       <c r="E40" t="n">
-        <v>8.444000000000001</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>411.56</v>
+        <v>330.28</v>
       </c>
       <c r="D41" t="n">
-        <v>484.26</v>
+        <v>391.58</v>
       </c>
       <c r="E41" t="n">
-        <v>4.544</v>
+        <v>7.712</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>481.18</v>
+        <v>370.04</v>
       </c>
       <c r="D42" t="n">
-        <v>567.9400000000001</v>
+        <v>429.92</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>6.868</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>567.9400000000001</v>
+        <v>391.58</v>
       </c>
       <c r="D43" t="n">
-        <v>608.96</v>
+        <v>449.94</v>
       </c>
       <c r="E43" t="n">
-        <v>27.088</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>305.12</v>
+        <v>304.62</v>
       </c>
       <c r="D44" t="n">
-        <v>355.2</v>
+        <v>356.24</v>
       </c>
       <c r="E44" t="n">
-        <v>7.74</v>
+        <v>2.356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>409.26</v>
+        <v>439.62</v>
       </c>
       <c r="D45" t="n">
-        <v>458.96</v>
+        <v>506.58</v>
       </c>
       <c r="E45" t="n">
-        <v>4.604</v>
+        <v>2.912</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>355.2</v>
+        <v>367.02</v>
       </c>
       <c r="D46" t="n">
-        <v>431.62</v>
+        <v>429.12</v>
       </c>
       <c r="E46" t="n">
-        <v>3.708</v>
+        <v>5.008</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>408.42</v>
+        <v>356.24</v>
       </c>
       <c r="D47" t="n">
-        <v>466.78</v>
+        <v>438.33</v>
       </c>
       <c r="E47" t="n">
-        <v>3.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1340,41 +1340,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>342.6</v>
+        <v>438.33</v>
       </c>
       <c r="D48" t="n">
-        <v>413.76</v>
+        <v>504.53</v>
       </c>
       <c r="E48" t="n">
-        <v>5.384</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>458.96</v>
+        <v>429.12</v>
       </c>
       <c r="D49" t="n">
-        <v>542.2</v>
+        <v>497.22</v>
       </c>
       <c r="E49" t="n">
-        <v>1.38</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>542.2</v>
+        <v>497.22</v>
       </c>
       <c r="D50" t="n">
-        <v>626.24</v>
+        <v>578.26</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1393,97 +1393,59 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>431.62</v>
+        <v>429.92</v>
       </c>
       <c r="D51" t="n">
-        <v>500.2</v>
+        <v>503.02</v>
       </c>
       <c r="E51" t="n">
-        <v>0.98</v>
+        <v>3.148</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>500.2</v>
+        <v>504.53</v>
       </c>
       <c r="D52" t="n">
-        <v>594.84</v>
+        <v>553.0700000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>466.78</v>
+        <v>426.46</v>
       </c>
       <c r="D53" t="n">
-        <v>534.28</v>
+        <v>485.22</v>
       </c>
       <c r="E53" t="n">
-        <v>0.232</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>534.28</v>
-      </c>
-      <c r="D54" t="n">
-        <v>605.8200000000001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>6</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>pond16</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>594.84</v>
-      </c>
-      <c r="D55" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>27.624</v>
+        <v>4.028</v>
       </c>
     </row>
   </sheetData>
